--- a/부품구매리스트/제3회자율주행SW경진대회_구매리스트_ver03.xlsx
+++ b/부품구매리스트/제3회자율주행SW경진대회_구매리스트_ver03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dudrh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6116D085-FE34-40F2-9547-5E398D91864D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2112656B-5168-4AA4-95EC-067383FFADD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="2700" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -804,6 +804,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -816,15 +837,6 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -864,23 +876,11 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1488,8 +1488,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:E22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1508,15 +1508,15 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1549,7 +1549,7 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="51" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="31" t="s">
@@ -1573,7 +1573,7 @@
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="35" t="s">
         <v>52</v>
       </c>
@@ -1595,7 +1595,7 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="35" t="s">
         <v>75</v>
       </c>
@@ -1619,7 +1619,7 @@
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="54"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="35" t="s">
         <v>45</v>
       </c>
@@ -1638,7 +1638,7 @@
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="54"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="31" t="s">
         <v>42</v>
       </c>
@@ -1657,7 +1657,7 @@
       <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="55"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="31" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +1676,7 @@
       <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="51" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="35" t="s">
@@ -1688,7 +1688,7 @@
       <c r="E11" s="32">
         <v>2</v>
       </c>
-      <c r="F11" s="62" t="s">
+      <c r="F11" s="66" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="36" t="s">
@@ -1699,7 +1699,7 @@
       <c r="A12" s="5">
         <v>8</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="35" t="s">
         <v>3</v>
       </c>
@@ -1709,7 +1709,7 @@
       <c r="E12" s="32">
         <v>2</v>
       </c>
-      <c r="F12" s="63"/>
+      <c r="F12" s="67"/>
       <c r="G12" s="36" t="s">
         <v>18</v>
       </c>
@@ -1718,7 +1718,7 @@
       <c r="A13" s="5">
         <v>9</v>
       </c>
-      <c r="B13" s="54"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="35" t="s">
         <v>4</v>
       </c>
@@ -1728,7 +1728,7 @@
       <c r="E13" s="32">
         <v>2</v>
       </c>
-      <c r="F13" s="64"/>
+      <c r="F13" s="68"/>
       <c r="G13" s="36" t="s">
         <v>18</v>
       </c>
@@ -1737,7 +1737,7 @@
       <c r="A14" s="5">
         <v>10</v>
       </c>
-      <c r="B14" s="54"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="35" t="s">
         <v>33</v>
       </c>
@@ -1758,7 +1758,7 @@
       <c r="A15" s="5">
         <v>11</v>
       </c>
-      <c r="B15" s="55"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="35" t="s">
         <v>35</v>
       </c>
@@ -1779,7 +1779,7 @@
       <c r="A16" s="5">
         <v>12</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="51" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="31" t="s">
@@ -1802,14 +1802,14 @@
       <c r="A17" s="5">
         <v>13</v>
       </c>
-      <c r="B17" s="54"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="9" t="s">
         <v>79</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="65" t="s">
+      <c r="E17" s="69" t="s">
         <v>95</v>
       </c>
       <c r="F17" s="11" t="s">
@@ -1823,14 +1823,14 @@
       <c r="A18" s="5">
         <v>14</v>
       </c>
-      <c r="B18" s="54"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="66"/>
+      <c r="E18" s="70"/>
       <c r="F18" s="13" t="s">
         <v>88</v>
       </c>
@@ -1842,14 +1842,14 @@
       <c r="A19" s="5">
         <v>15</v>
       </c>
-      <c r="B19" s="54"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="9" t="s">
         <v>81</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="67"/>
+      <c r="E19" s="71"/>
       <c r="F19" s="14" t="s">
         <v>77</v>
       </c>
@@ -1861,12 +1861,12 @@
       <c r="A20" s="5">
         <v>16</v>
       </c>
-      <c r="B20" s="54"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D20" s="17"/>
-      <c r="E20" s="68" t="s">
+      <c r="E20" s="72" t="s">
         <v>98</v>
       </c>
       <c r="F20" s="18" t="s">
@@ -1877,13 +1877,15 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="54"/>
+      <c r="A21" s="5">
+        <v>17</v>
+      </c>
+      <c r="B21" s="52"/>
       <c r="C21" s="16" t="s">
         <v>83</v>
       </c>
       <c r="D21" s="17"/>
-      <c r="E21" s="72"/>
+      <c r="E21" s="73"/>
       <c r="F21" s="18" t="s">
         <v>82</v>
       </c>
@@ -1893,15 +1895,15 @@
     </row>
     <row r="22" spans="1:7" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
-        <v>17</v>
-      </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="52"/>
+      <c r="C22" s="50" t="s">
         <v>97</v>
       </c>
       <c r="D22" s="20"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="73" t="s">
+      <c r="E22" s="74"/>
+      <c r="F22" s="49" t="s">
         <v>96</v>
       </c>
       <c r="G22" s="19" t="s">
@@ -1910,9 +1912,9 @@
     </row>
     <row r="23" spans="1:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
-        <v>18</v>
-      </c>
-      <c r="B23" s="54"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="52"/>
       <c r="C23" s="31" t="s">
         <v>46</v>
       </c>
@@ -1929,9 +1931,9 @@
     </row>
     <row r="24" spans="1:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>19</v>
-      </c>
-      <c r="B24" s="55"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="53"/>
       <c r="C24" s="35" t="s">
         <v>25</v>
       </c>
@@ -1948,9 +1950,9 @@
     </row>
     <row r="25" spans="1:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>20</v>
-      </c>
-      <c r="B25" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="60" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="42" t="s">
@@ -1971,9 +1973,9 @@
     </row>
     <row r="26" spans="1:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>21</v>
-      </c>
-      <c r="B26" s="57"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="61"/>
       <c r="C26" s="45" t="s">
         <v>50</v>
       </c>
@@ -1990,9 +1992,9 @@
     </row>
     <row r="27" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>22</v>
-      </c>
-      <c r="B27" s="58"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="62"/>
       <c r="C27" s="35" t="s">
         <v>36</v>
       </c>
@@ -2009,16 +2011,16 @@
     </row>
     <row r="28" spans="1:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
-        <v>23</v>
-      </c>
-      <c r="B28" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="63" t="s">
         <v>60</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="15"/>
-      <c r="E28" s="49" t="s">
+      <c r="E28" s="56" t="s">
         <v>67</v>
       </c>
       <c r="F28" s="22" t="s">
@@ -2030,14 +2032,14 @@
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
-        <v>24</v>
-      </c>
-      <c r="B29" s="60"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="64"/>
       <c r="C29" s="24" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="15"/>
-      <c r="E29" s="50"/>
+      <c r="E29" s="57"/>
       <c r="F29" s="22" t="s">
         <v>56</v>
       </c>
@@ -2047,16 +2049,16 @@
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>25</v>
-      </c>
-      <c r="B30" s="60"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="64"/>
       <c r="C30" s="25" t="s">
         <v>59</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="50"/>
+      <c r="E30" s="57"/>
       <c r="F30" s="25" t="s">
         <v>11</v>
       </c>
@@ -2066,14 +2068,14 @@
     </row>
     <row r="31" spans="1:7" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
-        <v>26</v>
-      </c>
-      <c r="B31" s="61"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="65"/>
       <c r="C31" s="24" t="s">
         <v>64</v>
       </c>
       <c r="D31" s="15"/>
-      <c r="E31" s="50"/>
+      <c r="E31" s="57"/>
       <c r="F31" s="22" t="s">
         <v>57</v>
       </c>
@@ -2083,16 +2085,16 @@
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
-        <v>27</v>
-      </c>
-      <c r="B32" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="51" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>91</v>
       </c>
       <c r="D32" s="19"/>
-      <c r="E32" s="70" t="s">
+      <c r="E32" s="54" t="s">
         <v>94</v>
       </c>
       <c r="F32" s="18" t="s">
@@ -2104,16 +2106,16 @@
     </row>
     <row r="33" spans="1:7" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <v>28</v>
-      </c>
-      <c r="B33" s="54"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="52"/>
       <c r="C33" s="16" t="s">
         <v>71</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="71"/>
+      <c r="E33" s="55"/>
       <c r="F33" s="29" t="s">
         <v>70</v>
       </c>
@@ -2123,9 +2125,9 @@
     </row>
     <row r="34" spans="1:7" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>29</v>
-      </c>
-      <c r="B34" s="55"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="53"/>
       <c r="C34" s="31" t="s">
         <v>68</v>
       </c>
@@ -2142,7 +2144,7 @@
     </row>
     <row r="35" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>16</v>
@@ -2165,7 +2167,7 @@
     </row>
     <row r="36" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>62</v>
